--- a/biology/Botanique/John_Fraser_(botaniste)/John_Fraser_(botaniste).xlsx
+++ b/biology/Botanique/John_Fraser_(botaniste)/John_Fraser_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Fraser est un botaniste britannique, né le 14 octobre 1750 à Inverness et mort le 26 avril 1811 à Chelsea.
 Drapier à Londres près du jardin botanique de Chelsea, il se lie d’amitié avec William Forsyth qui l’initie à la botanique.
-Fraser fait plusieurs voyages dans le nord-est de l'Amérique, à Terre-Neuve et dans les Appalaches, pour y récolter des plantes qu'il envoie dans sa pépinière à Londres et chez quelques clients dont la tsarine Catherine II de Russie[1], le jardin botanique de Chelsea, William Aiton et James Edward Smith.
+Fraser fait plusieurs voyages dans le nord-est de l'Amérique, à Terre-Neuve et dans les Appalaches, pour y récolter des plantes qu'il envoie dans sa pépinière à Londres et chez quelques clients dont la tsarine Catherine II de Russie, le jardin botanique de Chelsea, William Aiton et James Edward Smith.
 Plusieurs espèces qu’il a récoltées lui sont dédiées dont le Abies fraseri (Pursh) Poir. 1817.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « John Fraser » (voir la liste des auteurs).</t>
         </is>
